--- a/002_StockDownLoad/002_StockDownLoad_log_day.xlsx
+++ b/002_StockDownLoad/002_StockDownLoad_log_day.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="354">
   <si>
     <t>stock_code</t>
   </si>
@@ -1070,9 +1070,6 @@
   </si>
   <si>
     <t>920045.BJ</t>
-  </si>
-  <si>
-    <t>19931130</t>
   </si>
   <si>
     <t>20260221</t>
@@ -1467,7 +1464,7 @@
         <v>20260101</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1481,7 +1478,7 @@
         <v>20260101</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1495,7 +1492,7 @@
         <v>20260101</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1509,7 +1506,7 @@
         <v>20260101</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1523,7 +1520,7 @@
         <v>20260221</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1537,7 +1534,7 @@
         <v>20260221</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1551,7 +1548,7 @@
         <v>20260101</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1565,7 +1562,7 @@
         <v>20260101</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1579,7 +1576,7 @@
         <v>20260101</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1593,7 +1590,7 @@
         <v>20260101</v>
       </c>
       <c r="D11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1607,7 +1604,7 @@
         <v>20260101</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1621,7 +1618,7 @@
         <v>20260101</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1635,7 +1632,7 @@
         <v>20260101</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1649,7 +1646,7 @@
         <v>20260101</v>
       </c>
       <c r="D15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1663,7 +1660,7 @@
         <v>20260101</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1677,7 +1674,7 @@
         <v>20260101</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1691,7 +1688,7 @@
         <v>20260221</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1705,7 +1702,7 @@
         <v>20260101</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1719,7 +1716,7 @@
         <v>20260221</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1733,7 +1730,7 @@
         <v>20260221</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1747,7 +1744,7 @@
         <v>20260101</v>
       </c>
       <c r="D22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1761,7 +1758,7 @@
         <v>20260101</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1775,7 +1772,7 @@
         <v>20260101</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1789,7 +1786,7 @@
         <v>20260221</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1803,7 +1800,7 @@
         <v>20260101</v>
       </c>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1817,7 +1814,7 @@
         <v>20260221</v>
       </c>
       <c r="D27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1831,7 +1828,7 @@
         <v>20260221</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1845,7 +1842,7 @@
         <v>20260221</v>
       </c>
       <c r="D29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1859,7 +1856,7 @@
         <v>20260221</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1873,7 +1870,7 @@
         <v>20260221</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1887,7 +1884,7 @@
         <v>20260221</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1901,7 +1898,7 @@
         <v>20260221</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1915,7 +1912,7 @@
         <v>20260221</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1929,7 +1926,7 @@
         <v>20260221</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1943,7 +1940,7 @@
         <v>20260221</v>
       </c>
       <c r="D36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1957,7 +1954,7 @@
         <v>20260221</v>
       </c>
       <c r="D37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1971,7 +1968,7 @@
         <v>20260221</v>
       </c>
       <c r="D38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1985,7 +1982,7 @@
         <v>20260221</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1999,7 +1996,7 @@
         <v>20260221</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2013,7 +2010,7 @@
         <v>20260221</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2027,7 +2024,7 @@
         <v>20260221</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2041,7 +2038,7 @@
         <v>20260221</v>
       </c>
       <c r="D43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2055,7 +2052,7 @@
         <v>20260221</v>
       </c>
       <c r="D44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2069,7 +2066,7 @@
         <v>20260221</v>
       </c>
       <c r="D45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2083,7 +2080,7 @@
         <v>20260221</v>
       </c>
       <c r="D46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2097,7 +2094,7 @@
         <v>20260221</v>
       </c>
       <c r="D47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2111,7 +2108,7 @@
         <v>20260221</v>
       </c>
       <c r="D48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2125,7 +2122,7 @@
         <v>20260221</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2139,7 +2136,7 @@
         <v>20260221</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2153,7 +2150,7 @@
         <v>20260221</v>
       </c>
       <c r="D51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2167,7 +2164,7 @@
         <v>20260221</v>
       </c>
       <c r="D52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2181,7 +2178,7 @@
         <v>20260221</v>
       </c>
       <c r="D53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2195,7 +2192,7 @@
         <v>20260221</v>
       </c>
       <c r="D54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2209,7 +2206,7 @@
         <v>20260221</v>
       </c>
       <c r="D55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2223,7 +2220,7 @@
         <v>20260221</v>
       </c>
       <c r="D56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2237,7 +2234,7 @@
         <v>20260221</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2251,7 +2248,7 @@
         <v>20260221</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2265,7 +2262,7 @@
         <v>20260221</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2279,7 +2276,7 @@
         <v>20260221</v>
       </c>
       <c r="D60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2293,7 +2290,7 @@
         <v>20260221</v>
       </c>
       <c r="D61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2307,7 +2304,7 @@
         <v>20260221</v>
       </c>
       <c r="D62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2321,7 +2318,7 @@
         <v>20260221</v>
       </c>
       <c r="D63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2335,7 +2332,7 @@
         <v>20260221</v>
       </c>
       <c r="D64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2349,7 +2346,7 @@
         <v>20260221</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2363,7 +2360,7 @@
         <v>20260221</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2377,7 +2374,7 @@
         <v>20260221</v>
       </c>
       <c r="D67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2391,7 +2388,7 @@
         <v>20260221</v>
       </c>
       <c r="D68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2405,7 +2402,7 @@
         <v>20260221</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2419,7 +2416,7 @@
         <v>20260221</v>
       </c>
       <c r="D70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2433,7 +2430,7 @@
         <v>20260221</v>
       </c>
       <c r="D71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2447,7 +2444,7 @@
         <v>20260221</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2461,7 +2458,7 @@
         <v>20260221</v>
       </c>
       <c r="D73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2475,7 +2472,7 @@
         <v>20260221</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2489,7 +2486,7 @@
         <v>20260221</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2503,7 +2500,7 @@
         <v>20260221</v>
       </c>
       <c r="D76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2517,7 +2514,7 @@
         <v>20260221</v>
       </c>
       <c r="D77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2531,7 +2528,7 @@
         <v>20260221</v>
       </c>
       <c r="D78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2545,7 +2542,7 @@
         <v>20260221</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2559,7 +2556,7 @@
         <v>20260221</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2573,7 +2570,7 @@
         <v>20260221</v>
       </c>
       <c r="D81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2587,7 +2584,7 @@
         <v>20260221</v>
       </c>
       <c r="D82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2601,7 +2598,7 @@
         <v>20260221</v>
       </c>
       <c r="D83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2615,7 +2612,7 @@
         <v>20260221</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2629,7 +2626,7 @@
         <v>20260221</v>
       </c>
       <c r="D85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2643,7 +2640,7 @@
         <v>20260221</v>
       </c>
       <c r="D86" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2657,7 +2654,7 @@
         <v>20260221</v>
       </c>
       <c r="D87" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2671,7 +2668,7 @@
         <v>20260221</v>
       </c>
       <c r="D88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2685,7 +2682,7 @@
         <v>20260221</v>
       </c>
       <c r="D89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2699,7 +2696,7 @@
         <v>20260221</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2713,7 +2710,7 @@
         <v>20260221</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2727,7 +2724,7 @@
         <v>20260221</v>
       </c>
       <c r="D92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2741,7 +2738,7 @@
         <v>20260221</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2755,7 +2752,7 @@
         <v>20260221</v>
       </c>
       <c r="D94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2769,7 +2766,7 @@
         <v>20260221</v>
       </c>
       <c r="D95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2783,7 +2780,7 @@
         <v>20260221</v>
       </c>
       <c r="D96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2797,7 +2794,7 @@
         <v>20260221</v>
       </c>
       <c r="D97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2811,7 +2808,7 @@
         <v>20260221</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2825,7 +2822,7 @@
         <v>20260221</v>
       </c>
       <c r="D99" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2839,7 +2836,7 @@
         <v>20260221</v>
       </c>
       <c r="D100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2853,7 +2850,7 @@
         <v>20260221</v>
       </c>
       <c r="D101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2867,7 +2864,7 @@
         <v>20260221</v>
       </c>
       <c r="D102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2881,7 +2878,7 @@
         <v>20260221</v>
       </c>
       <c r="D103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2895,7 +2892,7 @@
         <v>20260221</v>
       </c>
       <c r="D104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2909,7 +2906,7 @@
         <v>20260221</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2923,7 +2920,7 @@
         <v>20260221</v>
       </c>
       <c r="D106" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2937,7 +2934,7 @@
         <v>20260221</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2951,7 +2948,7 @@
         <v>20260221</v>
       </c>
       <c r="D108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2965,7 +2962,7 @@
         <v>20260221</v>
       </c>
       <c r="D109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2979,7 +2976,7 @@
         <v>20260221</v>
       </c>
       <c r="D110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2993,7 +2990,7 @@
         <v>20260221</v>
       </c>
       <c r="D111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3007,7 +3004,7 @@
         <v>20260221</v>
       </c>
       <c r="D112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3021,7 +3018,7 @@
         <v>20260221</v>
       </c>
       <c r="D113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3035,7 +3032,7 @@
         <v>20260221</v>
       </c>
       <c r="D114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3049,7 +3046,7 @@
         <v>20260221</v>
       </c>
       <c r="D115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3063,7 +3060,7 @@
         <v>20260221</v>
       </c>
       <c r="D116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3077,7 +3074,7 @@
         <v>20260221</v>
       </c>
       <c r="D117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3091,7 +3088,7 @@
         <v>20260221</v>
       </c>
       <c r="D118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3105,7 +3102,7 @@
         <v>20260221</v>
       </c>
       <c r="D119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3119,7 +3116,7 @@
         <v>20260221</v>
       </c>
       <c r="D120" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3133,7 +3130,7 @@
         <v>20260221</v>
       </c>
       <c r="D121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3147,7 +3144,7 @@
         <v>20260221</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3161,7 +3158,7 @@
         <v>20260221</v>
       </c>
       <c r="D123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3175,7 +3172,7 @@
         <v>20260221</v>
       </c>
       <c r="D124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3189,7 +3186,7 @@
         <v>20260221</v>
       </c>
       <c r="D125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3203,7 +3200,7 @@
         <v>20260221</v>
       </c>
       <c r="D126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3217,7 +3214,7 @@
         <v>20260221</v>
       </c>
       <c r="D127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3231,7 +3228,7 @@
         <v>20260221</v>
       </c>
       <c r="D128" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3245,7 +3242,7 @@
         <v>20260221</v>
       </c>
       <c r="D129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3259,7 +3256,7 @@
         <v>20260221</v>
       </c>
       <c r="D130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3273,7 +3270,7 @@
         <v>20260221</v>
       </c>
       <c r="D131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3287,7 +3284,7 @@
         <v>20260221</v>
       </c>
       <c r="D132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3301,7 +3298,7 @@
         <v>20260221</v>
       </c>
       <c r="D133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3315,7 +3312,7 @@
         <v>20260221</v>
       </c>
       <c r="D134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3329,7 +3326,7 @@
         <v>20260221</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3343,7 +3340,7 @@
         <v>20260221</v>
       </c>
       <c r="D136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3357,7 +3354,7 @@
         <v>20260221</v>
       </c>
       <c r="D137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3371,7 +3368,7 @@
         <v>20260221</v>
       </c>
       <c r="D138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3385,7 +3382,7 @@
         <v>20260221</v>
       </c>
       <c r="D139" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3399,7 +3396,7 @@
         <v>20260221</v>
       </c>
       <c r="D140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3413,7 +3410,7 @@
         <v>20260221</v>
       </c>
       <c r="D141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3427,7 +3424,7 @@
         <v>20260221</v>
       </c>
       <c r="D142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3441,7 +3438,7 @@
         <v>20260221</v>
       </c>
       <c r="D143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3455,7 +3452,7 @@
         <v>20260221</v>
       </c>
       <c r="D144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3469,7 +3466,7 @@
         <v>20260221</v>
       </c>
       <c r="D145" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3483,7 +3480,7 @@
         <v>20260221</v>
       </c>
       <c r="D146" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3497,7 +3494,7 @@
         <v>20260221</v>
       </c>
       <c r="D147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3511,7 +3508,7 @@
         <v>20260221</v>
       </c>
       <c r="D148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3525,7 +3522,7 @@
         <v>20260221</v>
       </c>
       <c r="D149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3539,7 +3536,7 @@
         <v>20260221</v>
       </c>
       <c r="D150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3553,7 +3550,7 @@
         <v>20260221</v>
       </c>
       <c r="D151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3567,7 +3564,7 @@
         <v>20260221</v>
       </c>
       <c r="D152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3581,7 +3578,7 @@
         <v>20260221</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3595,7 +3592,7 @@
         <v>20260221</v>
       </c>
       <c r="D154" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3609,7 +3606,7 @@
         <v>20260221</v>
       </c>
       <c r="D155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3623,7 +3620,7 @@
         <v>20260221</v>
       </c>
       <c r="D156" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3637,7 +3634,7 @@
         <v>20260221</v>
       </c>
       <c r="D157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3651,7 +3648,7 @@
         <v>20260221</v>
       </c>
       <c r="D158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3665,7 +3662,7 @@
         <v>20260221</v>
       </c>
       <c r="D159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3679,7 +3676,7 @@
         <v>20260221</v>
       </c>
       <c r="D160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3693,7 +3690,7 @@
         <v>20260221</v>
       </c>
       <c r="D161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3707,7 +3704,7 @@
         <v>20260221</v>
       </c>
       <c r="D162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3721,7 +3718,7 @@
         <v>20260221</v>
       </c>
       <c r="D163" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3735,7 +3732,7 @@
         <v>20260221</v>
       </c>
       <c r="D164" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3749,7 +3746,7 @@
         <v>20260221</v>
       </c>
       <c r="D165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3763,7 +3760,7 @@
         <v>20260221</v>
       </c>
       <c r="D166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3777,7 +3774,7 @@
         <v>20260221</v>
       </c>
       <c r="D167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3791,7 +3788,7 @@
         <v>20260221</v>
       </c>
       <c r="D168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3805,7 +3802,7 @@
         <v>20260221</v>
       </c>
       <c r="D169" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3819,7 +3816,7 @@
         <v>20260221</v>
       </c>
       <c r="D170" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3833,7 +3830,7 @@
         <v>20260221</v>
       </c>
       <c r="D171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3847,7 +3844,7 @@
         <v>20260221</v>
       </c>
       <c r="D172" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3861,7 +3858,7 @@
         <v>20260221</v>
       </c>
       <c r="D173" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3875,7 +3872,7 @@
         <v>20260221</v>
       </c>
       <c r="D174" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3889,7 +3886,7 @@
         <v>20260221</v>
       </c>
       <c r="D175" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3903,7 +3900,7 @@
         <v>20260221</v>
       </c>
       <c r="D176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3917,7 +3914,7 @@
         <v>20260221</v>
       </c>
       <c r="D177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3931,7 +3928,7 @@
         <v>20260221</v>
       </c>
       <c r="D178" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3945,7 +3942,7 @@
         <v>20260221</v>
       </c>
       <c r="D179" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3959,7 +3956,7 @@
         <v>20260221</v>
       </c>
       <c r="D180" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3973,7 +3970,7 @@
         <v>20260221</v>
       </c>
       <c r="D181" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3987,7 +3984,7 @@
         <v>20260221</v>
       </c>
       <c r="D182" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4001,7 +3998,7 @@
         <v>20260221</v>
       </c>
       <c r="D183" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4015,7 +4012,7 @@
         <v>20260221</v>
       </c>
       <c r="D184" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4029,7 +4026,7 @@
         <v>20260221</v>
       </c>
       <c r="D185" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4043,7 +4040,7 @@
         <v>20260221</v>
       </c>
       <c r="D186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4057,7 +4054,7 @@
         <v>20260221</v>
       </c>
       <c r="D187" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4071,7 +4068,7 @@
         <v>20260221</v>
       </c>
       <c r="D188" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4085,7 +4082,7 @@
         <v>20260221</v>
       </c>
       <c r="D189" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4099,7 +4096,7 @@
         <v>20260221</v>
       </c>
       <c r="D190" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4113,7 +4110,7 @@
         <v>20260221</v>
       </c>
       <c r="D191" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4127,7 +4124,7 @@
         <v>20260221</v>
       </c>
       <c r="D192" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4141,7 +4138,7 @@
         <v>20260221</v>
       </c>
       <c r="D193" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4155,7 +4152,7 @@
         <v>20260221</v>
       </c>
       <c r="D194" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4169,7 +4166,7 @@
         <v>20260221</v>
       </c>
       <c r="D195" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4183,7 +4180,7 @@
         <v>20260221</v>
       </c>
       <c r="D196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4197,7 +4194,7 @@
         <v>20260221</v>
       </c>
       <c r="D197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4211,7 +4208,7 @@
         <v>20260221</v>
       </c>
       <c r="D198" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4225,7 +4222,7 @@
         <v>20260221</v>
       </c>
       <c r="D199" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4239,7 +4236,7 @@
         <v>20260221</v>
       </c>
       <c r="D200" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4253,7 +4250,7 @@
         <v>20260221</v>
       </c>
       <c r="D201" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4267,7 +4264,7 @@
         <v>20260221</v>
       </c>
       <c r="D202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4281,7 +4278,7 @@
         <v>20260221</v>
       </c>
       <c r="D203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4295,7 +4292,7 @@
         <v>20260221</v>
       </c>
       <c r="D204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4309,7 +4306,7 @@
         <v>20260221</v>
       </c>
       <c r="D205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4323,7 +4320,7 @@
         <v>20260221</v>
       </c>
       <c r="D206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4337,7 +4334,7 @@
         <v>20260221</v>
       </c>
       <c r="D207" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4351,7 +4348,7 @@
         <v>20260221</v>
       </c>
       <c r="D208" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4365,7 +4362,7 @@
         <v>20260221</v>
       </c>
       <c r="D209" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4379,7 +4376,7 @@
         <v>20260221</v>
       </c>
       <c r="D210" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4393,7 +4390,7 @@
         <v>20260221</v>
       </c>
       <c r="D211" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4407,7 +4404,7 @@
         <v>20260221</v>
       </c>
       <c r="D212" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4421,7 +4418,7 @@
         <v>20260221</v>
       </c>
       <c r="D213" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4435,7 +4432,7 @@
         <v>20260221</v>
       </c>
       <c r="D214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4449,7 +4446,7 @@
         <v>20260221</v>
       </c>
       <c r="D215" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4463,7 +4460,7 @@
         <v>20260221</v>
       </c>
       <c r="D216" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4477,7 +4474,7 @@
         <v>20260221</v>
       </c>
       <c r="D217" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4491,7 +4488,7 @@
         <v>20260221</v>
       </c>
       <c r="D218" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4505,7 +4502,7 @@
         <v>20260221</v>
       </c>
       <c r="D219" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4519,7 +4516,7 @@
         <v>20260221</v>
       </c>
       <c r="D220" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4533,7 +4530,7 @@
         <v>20260221</v>
       </c>
       <c r="D221" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4547,7 +4544,7 @@
         <v>20260221</v>
       </c>
       <c r="D222" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4561,7 +4558,7 @@
         <v>20260221</v>
       </c>
       <c r="D223" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4575,7 +4572,7 @@
         <v>20260221</v>
       </c>
       <c r="D224" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4589,7 +4586,7 @@
         <v>20260221</v>
       </c>
       <c r="D225" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4603,7 +4600,7 @@
         <v>20260221</v>
       </c>
       <c r="D226" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4617,7 +4614,7 @@
         <v>20260221</v>
       </c>
       <c r="D227" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4631,7 +4628,7 @@
         <v>20260221</v>
       </c>
       <c r="D228" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4645,7 +4642,7 @@
         <v>20260221</v>
       </c>
       <c r="D229" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4659,7 +4656,7 @@
         <v>20260221</v>
       </c>
       <c r="D230" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4673,7 +4670,7 @@
         <v>20260221</v>
       </c>
       <c r="D231" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4687,7 +4684,7 @@
         <v>20260221</v>
       </c>
       <c r="D232" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4701,7 +4698,7 @@
         <v>20260221</v>
       </c>
       <c r="D233" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4715,7 +4712,7 @@
         <v>20260221</v>
       </c>
       <c r="D234" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4729,7 +4726,7 @@
         <v>20260221</v>
       </c>
       <c r="D235" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4743,7 +4740,7 @@
         <v>20260221</v>
       </c>
       <c r="D236" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4757,7 +4754,7 @@
         <v>20260221</v>
       </c>
       <c r="D237" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4771,7 +4768,7 @@
         <v>20260221</v>
       </c>
       <c r="D238" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4785,7 +4782,7 @@
         <v>20260221</v>
       </c>
       <c r="D239" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4799,7 +4796,7 @@
         <v>20260221</v>
       </c>
       <c r="D240" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4813,7 +4810,7 @@
         <v>20260221</v>
       </c>
       <c r="D241" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4827,7 +4824,7 @@
         <v>20260221</v>
       </c>
       <c r="D242" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4841,7 +4838,7 @@
         <v>20260221</v>
       </c>
       <c r="D243" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4855,7 +4852,7 @@
         <v>20260221</v>
       </c>
       <c r="D244" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4869,7 +4866,7 @@
         <v>20260221</v>
       </c>
       <c r="D245" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4883,7 +4880,7 @@
         <v>20260221</v>
       </c>
       <c r="D246" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4897,7 +4894,7 @@
         <v>20260221</v>
       </c>
       <c r="D247" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4911,7 +4908,7 @@
         <v>20260221</v>
       </c>
       <c r="D248" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4925,7 +4922,7 @@
         <v>20260221</v>
       </c>
       <c r="D249" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4939,7 +4936,7 @@
         <v>20260221</v>
       </c>
       <c r="D250" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4953,7 +4950,7 @@
         <v>20260221</v>
       </c>
       <c r="D251" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4967,7 +4964,7 @@
         <v>20260221</v>
       </c>
       <c r="D252" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4981,7 +4978,7 @@
         <v>20260221</v>
       </c>
       <c r="D253" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4995,7 +4992,7 @@
         <v>20260221</v>
       </c>
       <c r="D254" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5009,7 +5006,7 @@
         <v>20260221</v>
       </c>
       <c r="D255" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5023,7 +5020,7 @@
         <v>20260221</v>
       </c>
       <c r="D256" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5037,7 +5034,7 @@
         <v>20260221</v>
       </c>
       <c r="D257" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5051,7 +5048,7 @@
         <v>20260221</v>
       </c>
       <c r="D258" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5065,7 +5062,7 @@
         <v>20260221</v>
       </c>
       <c r="D259" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5079,7 +5076,7 @@
         <v>20260221</v>
       </c>
       <c r="D260" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5093,7 +5090,7 @@
         <v>20260221</v>
       </c>
       <c r="D261" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5107,7 +5104,7 @@
         <v>20260221</v>
       </c>
       <c r="D262" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5121,7 +5118,7 @@
         <v>20260221</v>
       </c>
       <c r="D263" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5135,7 +5132,7 @@
         <v>20260221</v>
       </c>
       <c r="D264" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5149,7 +5146,7 @@
         <v>20260221</v>
       </c>
       <c r="D265" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5163,7 +5160,7 @@
         <v>20260221</v>
       </c>
       <c r="D266" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5177,7 +5174,7 @@
         <v>20260221</v>
       </c>
       <c r="D267" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5191,7 +5188,7 @@
         <v>20260221</v>
       </c>
       <c r="D268" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5205,7 +5202,7 @@
         <v>20260221</v>
       </c>
       <c r="D269" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5219,7 +5216,7 @@
         <v>20260221</v>
       </c>
       <c r="D270" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5233,7 +5230,7 @@
         <v>20260221</v>
       </c>
       <c r="D271" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5247,7 +5244,7 @@
         <v>20260221</v>
       </c>
       <c r="D272" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5261,7 +5258,7 @@
         <v>20260221</v>
       </c>
       <c r="D273" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5275,7 +5272,7 @@
         <v>20260221</v>
       </c>
       <c r="D274" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5289,7 +5286,7 @@
         <v>20260221</v>
       </c>
       <c r="D275" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5303,7 +5300,7 @@
         <v>20260221</v>
       </c>
       <c r="D276" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5317,7 +5314,7 @@
         <v>20260221</v>
       </c>
       <c r="D277" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5331,7 +5328,7 @@
         <v>20260221</v>
       </c>
       <c r="D278" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5345,7 +5342,7 @@
         <v>20260221</v>
       </c>
       <c r="D279" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5359,7 +5356,7 @@
         <v>20260221</v>
       </c>
       <c r="D280" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5373,7 +5370,7 @@
         <v>20260221</v>
       </c>
       <c r="D281" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5387,7 +5384,7 @@
         <v>20260221</v>
       </c>
       <c r="D282" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5401,7 +5398,7 @@
         <v>20260221</v>
       </c>
       <c r="D283" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5415,7 +5412,7 @@
         <v>20260221</v>
       </c>
       <c r="D284" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5429,7 +5426,7 @@
         <v>20260221</v>
       </c>
       <c r="D285" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5443,7 +5440,7 @@
         <v>20260221</v>
       </c>
       <c r="D286" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5457,7 +5454,7 @@
         <v>20260221</v>
       </c>
       <c r="D287" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5471,7 +5468,7 @@
         <v>20260221</v>
       </c>
       <c r="D288" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5485,7 +5482,7 @@
         <v>20260221</v>
       </c>
       <c r="D289" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5499,7 +5496,7 @@
         <v>20260221</v>
       </c>
       <c r="D290" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5513,7 +5510,7 @@
         <v>20260221</v>
       </c>
       <c r="D291" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5527,7 +5524,7 @@
         <v>20260221</v>
       </c>
       <c r="D292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5541,7 +5538,7 @@
         <v>20260221</v>
       </c>
       <c r="D293" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5555,7 +5552,7 @@
         <v>20260221</v>
       </c>
       <c r="D294" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5569,7 +5566,7 @@
         <v>20260221</v>
       </c>
       <c r="D295" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5583,7 +5580,7 @@
         <v>20260221</v>
       </c>
       <c r="D296" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5597,7 +5594,7 @@
         <v>20260221</v>
       </c>
       <c r="D297" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5611,7 +5608,7 @@
         <v>20260221</v>
       </c>
       <c r="D298" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5625,7 +5622,7 @@
         <v>20260221</v>
       </c>
       <c r="D299" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5639,7 +5636,7 @@
         <v>20260221</v>
       </c>
       <c r="D300" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5653,7 +5650,7 @@
         <v>20260221</v>
       </c>
       <c r="D301" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5667,7 +5664,7 @@
         <v>20260221</v>
       </c>
       <c r="D302" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5681,7 +5678,7 @@
         <v>20260221</v>
       </c>
       <c r="D303" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5695,7 +5692,7 @@
         <v>20260221</v>
       </c>
       <c r="D304" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5709,7 +5706,7 @@
         <v>20260221</v>
       </c>
       <c r="D305" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5723,7 +5720,7 @@
         <v>20260221</v>
       </c>
       <c r="D306" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5737,7 +5734,7 @@
         <v>20260221</v>
       </c>
       <c r="D307" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5751,7 +5748,7 @@
         <v>20260221</v>
       </c>
       <c r="D308" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5765,7 +5762,7 @@
         <v>20260221</v>
       </c>
       <c r="D309" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5779,7 +5776,7 @@
         <v>20260221</v>
       </c>
       <c r="D310" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5793,7 +5790,7 @@
         <v>20260221</v>
       </c>
       <c r="D311" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5807,7 +5804,7 @@
         <v>20260221</v>
       </c>
       <c r="D312" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5821,7 +5818,7 @@
         <v>20260221</v>
       </c>
       <c r="D313" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5835,7 +5832,7 @@
         <v>20260221</v>
       </c>
       <c r="D314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5849,7 +5846,7 @@
         <v>20260221</v>
       </c>
       <c r="D315" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5863,7 +5860,7 @@
         <v>20260221</v>
       </c>
       <c r="D316" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5877,7 +5874,7 @@
         <v>20260221</v>
       </c>
       <c r="D317" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5891,7 +5888,7 @@
         <v>20260221</v>
       </c>
       <c r="D318" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5905,7 +5902,7 @@
         <v>20260221</v>
       </c>
       <c r="D319" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5919,7 +5916,7 @@
         <v>20260221</v>
       </c>
       <c r="D320" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5933,7 +5930,7 @@
         <v>20260221</v>
       </c>
       <c r="D321" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5947,7 +5944,7 @@
         <v>20260221</v>
       </c>
       <c r="D322" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5961,7 +5958,7 @@
         <v>20260221</v>
       </c>
       <c r="D323" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5975,7 +5972,7 @@
         <v>20260221</v>
       </c>
       <c r="D324" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5989,7 +5986,7 @@
         <v>20260221</v>
       </c>
       <c r="D325" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6003,7 +6000,7 @@
         <v>20260221</v>
       </c>
       <c r="D326" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6017,7 +6014,7 @@
         <v>20260221</v>
       </c>
       <c r="D327" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6031,7 +6028,7 @@
         <v>20260221</v>
       </c>
       <c r="D328" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6045,7 +6042,7 @@
         <v>20260221</v>
       </c>
       <c r="D329" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6059,7 +6056,7 @@
         <v>20260221</v>
       </c>
       <c r="D330" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6073,7 +6070,7 @@
         <v>20260221</v>
       </c>
       <c r="D331" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6087,7 +6084,7 @@
         <v>20260221</v>
       </c>
       <c r="D332" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6101,7 +6098,7 @@
         <v>20260221</v>
       </c>
       <c r="D333" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6115,7 +6112,7 @@
         <v>20260221</v>
       </c>
       <c r="D334" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6129,7 +6126,7 @@
         <v>20260221</v>
       </c>
       <c r="D335" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6143,7 +6140,7 @@
         <v>20260221</v>
       </c>
       <c r="D336" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6157,7 +6154,7 @@
         <v>20260221</v>
       </c>
       <c r="D337" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6171,7 +6168,7 @@
         <v>20260221</v>
       </c>
       <c r="D338" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6185,7 +6182,7 @@
         <v>20260221</v>
       </c>
       <c r="D339" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6199,7 +6196,7 @@
         <v>20260221</v>
       </c>
       <c r="D340" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6213,7 +6210,7 @@
         <v>20260221</v>
       </c>
       <c r="D341" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6227,7 +6224,7 @@
         <v>20260221</v>
       </c>
       <c r="D342" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6241,7 +6238,7 @@
         <v>20260221</v>
       </c>
       <c r="D343" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6255,7 +6252,7 @@
         <v>20260221</v>
       </c>
       <c r="D344" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6269,7 +6266,7 @@
         <v>20260221</v>
       </c>
       <c r="D345" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6283,7 +6280,7 @@
         <v>20260221</v>
       </c>
       <c r="D346" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6297,7 +6294,7 @@
         <v>20260221</v>
       </c>
       <c r="D347" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6311,21 +6308,21 @@
         <v>20260221</v>
       </c>
       <c r="D348" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>351</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349">
+        <v>19931130</v>
+      </c>
+      <c r="C349" t="s">
         <v>352</v>
       </c>
-      <c r="C349" t="s">
-        <v>353</v>
-      </c>
       <c r="D349" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
